--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4005710.590254616</v>
+        <v>4007471.120557401</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>170.4803392703489</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100.8263852568437</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>112.0808863526785</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>15.32691334752831</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699758</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>75.41231307284953</v>
+        <v>75.41231307284907</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>340.3338839129397</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>40.1274131216467</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>112.0808863526777</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.5380597272483</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881269</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>154.4892550148504</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428172</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>82.25298866282583</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>93.4044447618827</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1808.800296392467</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="C2" t="n">
-        <v>1439.837779452055</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="D2" t="n">
-        <v>1081.572080845305</v>
+        <v>1422.200456328341</v>
       </c>
       <c r="E2" t="n">
-        <v>695.7838282470605</v>
+        <v>1036.412203730097</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477181</v>
+        <v>625.4262989404897</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>210.3538487854862</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267232</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923661</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653547</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392467</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392467</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,67 +4464,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527296</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248227</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.315157512487</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.798574724517</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.798574724517</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
         <v>1310.798574724517</v>
@@ -4533,7 +4533,7 @@
         <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829693</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4558,52 +4558,52 @@
         <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
         <v>3197.788768583745</v>
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4704,37 +4704,37 @@
         <v>1021.570547268604</v>
       </c>
       <c r="C7" t="n">
-        <v>852.6343643406973</v>
+        <v>852.6343643406968</v>
       </c>
       <c r="D7" t="n">
-        <v>702.5177249283615</v>
+        <v>702.5177249283611</v>
       </c>
       <c r="E7" t="n">
-        <v>554.6046313459684</v>
+        <v>554.604631345968</v>
       </c>
       <c r="F7" t="n">
-        <v>407.714683848058</v>
+        <v>407.7146838480576</v>
       </c>
       <c r="G7" t="n">
-        <v>240.011847222777</v>
+        <v>240.0118472227765</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4743,7 +4743,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4755,22 +4755,22 @@
         <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1203.219012098844</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2277.953133796418</v>
+        <v>1197.506131441393</v>
       </c>
       <c r="C8" t="n">
-        <v>1908.990616856006</v>
+        <v>828.5436145009811</v>
       </c>
       <c r="D8" t="n">
-        <v>1550.724918249256</v>
+        <v>470.2779158942306</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.936665651011</v>
+        <v>84.48966329598635</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3285.073081082255</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3031.542604356091</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2700.479717012521</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2347.711061742406</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>1974.245303481326</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796418</v>
+        <v>1584.105971505515</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5809963705858</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6448134426789</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>474.5281740303432</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>326.61508044795</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>179.7251329500397</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>179.7251329500397</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.022040344356</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2294612008255</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5050,37 +5050,37 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591808</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5363,13 +5363,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5509,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.547769317909</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>762.547769317909</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>762.547769317909</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6189,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257311</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694706</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6615,19 +6615,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.711292776928977e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.224095140800158e-12</v>
+        <v>-4.034444200650487e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>16.89590291932089</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>131.6952193743938</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194217</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>66.36248435538653</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>55.21102825632966</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616948.8851027385</v>
+        <v>616948.8851027386</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>616948.8851027386</v>
+        <v>616948.8851027385</v>
       </c>
     </row>
     <row r="10">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
@@ -26322,37 +26322,37 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="H2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.454111184259467e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316923</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316925</v>
+        <v>91573.95495316935</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181823</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707210.871377873</v>
+        <v>-707210.8713778716</v>
       </c>
       <c r="C6" t="n">
-        <v>621533.874349721</v>
+        <v>621533.8743497201</v>
       </c>
       <c r="D6" t="n">
-        <v>621533.874349721</v>
+        <v>621533.8743497205</v>
       </c>
       <c r="E6" t="n">
-        <v>367877.308622569</v>
+        <v>368189.9499514899</v>
       </c>
       <c r="F6" t="n">
-        <v>693289.770429924</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="G6" t="n">
-        <v>693289.7704299237</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="H6" t="n">
-        <v>693289.7704299241</v>
+        <v>693602.4117588457</v>
       </c>
       <c r="I6" t="n">
-        <v>693289.7704299241</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="J6" t="n">
-        <v>475758.5680326466</v>
+        <v>476071.2093615679</v>
       </c>
       <c r="K6" t="n">
-        <v>693289.770429924</v>
+        <v>693602.4117588454</v>
       </c>
       <c r="L6" t="n">
-        <v>693289.770429924</v>
+        <v>693602.4117588452</v>
       </c>
       <c r="M6" t="n">
-        <v>608234.7424944123</v>
+        <v>608547.3838233337</v>
       </c>
       <c r="N6" t="n">
-        <v>693289.7704299242</v>
+        <v>693602.4117588452</v>
       </c>
       <c r="O6" t="n">
-        <v>693289.7704299244</v>
+        <v>693602.4117588456</v>
       </c>
       <c r="P6" t="n">
-        <v>693289.7704299242</v>
+        <v>693602.4117588456</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>236.3957064713625</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>193.7813791304767</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>174.1309518529343</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>236.8107299762997</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104154</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>69.34270184147125</v>
+        <v>69.34270184147171</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.54216182877173</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>69.06034866652914</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>32.67412856164309</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.84812231763499e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
@@ -31290,31 +31290,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
         <v>19.17787942451121</v>
@@ -31363,43 +31363,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,19 +31442,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883116</v>
@@ -31469,13 +31469,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990647</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593851</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701982</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770464</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795109</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
